--- a/Vendor Master Sample.xlsx
+++ b/Vendor Master Sample.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Supplier</t>
+          <t>SupplierSUPPLIER</t>
         </is>
       </c>
     </row>
